--- a/GUIA NOME.xlsx
+++ b/GUIA NOME.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre\Documents\Programacao\Python\MAURO\CONTROLE FATURAMENTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre\Documents\Programacao\Python\MAURO\PROGRAMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0076793-F9F3-4EF6-B576-AF149DEF19D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1259C6-F0A1-4BE6-AB30-D7715229B6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="198" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="107">
   <si>
     <t>CONTRATO</t>
   </si>
@@ -332,6 +332,18 @@
   </si>
   <si>
     <t>DR 10-DR 13</t>
+  </si>
+  <si>
+    <t>55.428.765/0001-19</t>
+  </si>
+  <si>
+    <t>LBR 70% Planservi 30%</t>
+  </si>
+  <si>
+    <t>CDHU10</t>
+  </si>
+  <si>
+    <t>Consorcio Gerenciador Habita LP</t>
   </si>
 </sst>
 </file>
@@ -394,7 +406,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -437,11 +449,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -449,7 +472,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -487,6 +509,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,34 +821,34 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C27" sqref="C27"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="46.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="96.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="84.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" style="7" customWidth="1"/>
-    <col min="6" max="8" width="16.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="66.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="96.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="84.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="16.7109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>94</v>
       </c>
       <c r="F1" s="1"/>
@@ -830,19 +856,19 @@
       <c r="H1"/>
     </row>
     <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>95</v>
       </c>
       <c r="F2" s="1"/>
@@ -850,19 +876,19 @@
       <c r="H2"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>96</v>
       </c>
       <c r="F3" s="1"/>
@@ -870,19 +896,19 @@
       <c r="H3"/>
     </row>
     <row r="4" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>96</v>
       </c>
       <c r="F4" s="1"/>
@@ -890,19 +916,19 @@
       <c r="H4"/>
     </row>
     <row r="5" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>96</v>
       </c>
       <c r="F5" s="1"/>
@@ -910,19 +936,19 @@
       <c r="H5"/>
     </row>
     <row r="6" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>96</v>
       </c>
       <c r="F6" s="1"/>
@@ -930,19 +956,19 @@
       <c r="H6"/>
     </row>
     <row r="7" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>96</v>
       </c>
       <c r="F7" s="1"/>
@@ -950,19 +976,19 @@
       <c r="H7"/>
     </row>
     <row r="8" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>96</v>
       </c>
       <c r="F8" s="1"/>
@@ -970,19 +996,19 @@
       <c r="H8"/>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>96</v>
       </c>
       <c r="F9" s="1"/>
@@ -990,19 +1016,19 @@
       <c r="H9"/>
     </row>
     <row r="10" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>96</v>
       </c>
       <c r="F10" s="2"/>
@@ -1010,19 +1036,19 @@
       <c r="H10"/>
     </row>
     <row r="11" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>96</v>
       </c>
       <c r="F11" s="2"/>
@@ -1030,19 +1056,19 @@
       <c r="H11"/>
     </row>
     <row r="12" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>96</v>
       </c>
       <c r="F12" s="1"/>
@@ -1050,19 +1076,19 @@
       <c r="H12"/>
     </row>
     <row r="13" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>96</v>
       </c>
       <c r="F13" s="2"/>
@@ -1070,19 +1096,19 @@
       <c r="H13"/>
     </row>
     <row r="14" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>96</v>
       </c>
       <c r="F14" s="1"/>
@@ -1090,19 +1116,19 @@
       <c r="H14"/>
     </row>
     <row r="15" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>96</v>
       </c>
       <c r="F15" s="2"/>
@@ -1110,19 +1136,19 @@
       <c r="H15"/>
     </row>
     <row r="16" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>96</v>
       </c>
       <c r="F16" s="2"/>
@@ -1130,19 +1156,19 @@
       <c r="H16"/>
     </row>
     <row r="17" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>96</v>
       </c>
       <c r="F17" s="1"/>
@@ -1150,19 +1176,19 @@
       <c r="H17"/>
     </row>
     <row r="18" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>95</v>
       </c>
       <c r="F18" s="1"/>
@@ -1170,19 +1196,19 @@
       <c r="H18"/>
     </row>
     <row r="19" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="10" t="s">
         <v>96</v>
       </c>
       <c r="F19" s="1"/>
@@ -1190,19 +1216,19 @@
       <c r="H19"/>
     </row>
     <row r="20" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>96</v>
       </c>
       <c r="F20" s="1"/>
@@ -1210,19 +1236,19 @@
       <c r="H20"/>
     </row>
     <row r="21" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>95</v>
       </c>
       <c r="F21" s="2"/>
@@ -1230,19 +1256,19 @@
       <c r="H21"/>
     </row>
     <row r="22" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>95</v>
       </c>
       <c r="F22" s="2"/>
@@ -1250,19 +1276,19 @@
       <c r="H22"/>
     </row>
     <row r="23" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="10" t="s">
         <v>96</v>
       </c>
       <c r="F23" s="1"/>
@@ -1270,19 +1296,19 @@
       <c r="H23"/>
     </row>
     <row r="24" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="10" t="s">
         <v>96</v>
       </c>
       <c r="F24" s="1"/>
@@ -1290,19 +1316,19 @@
       <c r="H24"/>
     </row>
     <row r="25" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="10" t="s">
         <v>96</v>
       </c>
       <c r="F25" s="1"/>
@@ -1310,11 +1336,21 @@
       <c r="H25"/>
     </row>
     <row r="26" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="2"/>
+      <c r="A26" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
